--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t xml:space="preserve">All Likelihood- </t>
   </si>
@@ -84,13 +84,76 @@
   <si>
     <t xml:space="preserve"> TRADE]</t>
   </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>acq</t>
+  </si>
+  <si>
+    <t>money-fx</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>cluster 1</t>
+  </si>
+  <si>
+    <t>dominant-topic</t>
+  </si>
+  <si>
+    <t>cluster 2</t>
+  </si>
+  <si>
+    <t>cluster 3</t>
+  </si>
+  <si>
+    <t>cluster 4</t>
+  </si>
+  <si>
+    <t>cluster 5</t>
+  </si>
+  <si>
+    <t>cluster 6</t>
+  </si>
+  <si>
+    <t>cluster 7</t>
+  </si>
+  <si>
+    <t>cluster 8</t>
+  </si>
+  <si>
+    <t>cluster 9</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -124,7 +187,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,6 +201,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Iteration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> Number vs. Log Likelihood</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -296,23 +382,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="39564416"/>
-        <c:axId val="39554432"/>
+        <c:axId val="83280256"/>
+        <c:axId val="83281792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39564416"/>
+        <c:axId val="83280256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39554432"/>
+        <c:crossAx val="83281792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39554432"/>
+        <c:axId val="83281792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,9 +406,634 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39564416"/>
+        <c:crossAx val="83280256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 8 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: grain</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="127151104"/>
+        <c:axId val="128543360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127151104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128543360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128543360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127151104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 9 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: trade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="129364352"/>
+        <c:axId val="129366656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="129364352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129366656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129366656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129364352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0"/>
+              <a:t>Iteration Number vs. Mean Perplexity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>96.6529899620827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.165269008896502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.654513668315502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.021603702003503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.481191984154293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.877450635433206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.462752152621803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.115612183561296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.8695480473842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.722441260860805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.569366026817704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.352018095774795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.220360917803106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.1086870887804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.037861229781896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.998199742609998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.952121626498695</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82.9326874226158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82.911545015866295</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.8817117422184</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.875773858208206</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.875622692313001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="89584000"/>
+        <c:axId val="89585536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89584000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89585536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89585536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89584000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 1 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: money-fx</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="72354816"/>
+        <c:axId val="72389376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="72354816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72389376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72389376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72354816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -339,119 +1050,150 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 2 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: ship</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:yVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$W$3</c:f>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>96.6529899620827</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.165269008896502</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.654513668315502</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.021603702003503</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.481191984154293</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.877450635433206</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.462752152621803</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.115612183561296</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.8695480473842</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83.722441260860805</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.569366026817704</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.352018095774795</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83.220360917803106</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83.1086870887804</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83.037861229781896</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82.998199742609998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>82.952121626498695</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>82.9326874226158</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.911545015866295</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>82.8817117422184</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>82.875773858208206</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>82.875622692313001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
         </c:ser>
-        <c:axId val="114263168"/>
-        <c:axId val="114244992"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="114263168"/>
+        <c:axId val="70416640"/>
+        <c:axId val="71075712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70416640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114244992"/>
+        <c:crossAx val="71075712"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="114244992"/>
+        <c:axId val="71075712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114263168"/>
+        <c:crossAx val="70416640"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -462,7 +1204,807 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 3 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: grain</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="72032640"/>
+        <c:axId val="72034176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="72032640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72034176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72034176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72032640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 4 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: grain</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="72035328"/>
+        <c:axId val="72944256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="72035328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72944256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72944256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72035328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 5 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: crude</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="72998272"/>
+        <c:axId val="75453184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="72998272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75453184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75453184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72998272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 6 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: interest</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="127017344"/>
+        <c:axId val="127019648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127017344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127019648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127019648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127017344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>Cluster</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t> 7 Histogram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Main Topic: acq</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>acq</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>money-fx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>crude</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trade</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>interest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ship</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wheat</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>corn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="126763008"/>
+        <c:axId val="126891904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126763008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126891904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126891904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126763008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -475,13 +2017,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -525,6 +2067,281 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -824,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1085,13 +2902,407 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I36" workbookViewId="0">
+      <selection activeCell="AB40" sqref="AB40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>257</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>119</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>SUM(B3:J3)</f>
+        <v>409</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>117</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K11" si="0">SUM(B4:J4)</f>
+        <v>189</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>68</v>
+      </c>
+      <c r="J6">
+        <v>62</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>199</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>126</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>369</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>168</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>89</v>
+      </c>
+      <c r="J10">
+        <v>58</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>228</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>379</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
